--- a/biology/Histoire de la zoologie et de la botanique/Fiorenzo_Facchini/Fiorenzo_Facchini.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Fiorenzo_Facchini/Fiorenzo_Facchini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fiorenzo Facchini (né le 9 novembre 1929 à Porretta Terme, Bologne) est un anthropologue et paléoanthropologue italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fiorenzo Facchini est professeur émérite d'anthropologie et directeur du Musée d'anthropologie de l'Université de Bologne. Après son ordination, Facchini a également été actif en tant que vicaire épiscopal de l'Église catholique dans l'archidiocèse de Bologne.
 Facchini est membre de l’Académie des sciences de Bologne. Spécialiste en paléoanthropologie, il a publié plus d’une trentaine d’ouvrages sur le sujet, traduits dans plusieurs langues.
@@ -543,7 +557,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Il cammino dell'evoluzione umana, Jaca Book, Milano, 1985 (II ed. 1994).
 Antropologia (Evoluzione, Uomo, Ambiente), Utet, Torino, 1988 (II ed. 1995).
